--- a/Test Data/HCM Employee Relations/HCM_NameCorrection_0138.xlsx
+++ b/Test Data/HCM Employee Relations/HCM_NameCorrection_0138.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OracleATS\OFT\Maaden\Test Data\HCM Employee Relations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEA859D-CC17-44D3-B60E-B0D554D62206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D92062-9155-4238-9820-849917952BFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDE52EBF-C34A-44E8-A19F-627BCDE4ABAD}"/>
   </bookViews>
@@ -1460,7 +1460,7 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1590,16 +1590,16 @@
         <v>12</v>
       </c>
       <c r="H2" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>322</v>
-      </c>
       <c r="J2" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>328</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>325</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
